--- a/my-automation-project/src/main/java/com/test/automation/uiAutomation/data/Login.xlsx
+++ b/my-automation-project/src/main/java/com/test/automation/uiAutomation/data/Login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>password</t>
   </si>
@@ -43,13 +43,16 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +67,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -89,14 +99,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,7 +408,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -413,7 +429,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -442,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -453,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -461,9 +477,10 @@
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
